--- a/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,32; 86,19</t>
+          <t>73,02; 86,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 88,81</t>
+          <t>79,84; 88,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,08; 87,0</t>
+          <t>78,27; 86,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 82,63</t>
+          <t>68,41; 82,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,14; 84,62</t>
+          <t>74,34; 84,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,38; 81,96</t>
+          <t>73,5; 81,78</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,02; 83,14</t>
+          <t>69,79; 83,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,01; 80,92</t>
+          <t>69,52; 80,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,38; 80,8</t>
+          <t>71,87; 80,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,24; 79,21</t>
+          <t>62,95; 81,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,67; 80,49</t>
+          <t>61,6; 80,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,82; 77,94</t>
+          <t>65,99; 78,5</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,94; 51,07</t>
+          <t>34,74; 51,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,03; 56,55</t>
+          <t>43,83; 55,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 51,73</t>
+          <t>41,87; 51,93</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,04; 85,16</t>
+          <t>72,73; 85,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,26; 87,83</t>
+          <t>76,33; 87,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,72; 84,99</t>
+          <t>76,43; 85,16</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,73; 81,2</t>
+          <t>70,32; 81,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,95; 90,51</t>
+          <t>73,03; 90,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,08; 88,12</t>
+          <t>74,21; 86,62</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,51; 85,47</t>
+          <t>77,71; 85,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,98</t>
+          <t>86,14; 91,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,11; 87,9</t>
+          <t>82,89; 87,57</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>73,09; 77,98</t>
+          <t>73,24; 77,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>77,26; 83,1</t>
+          <t>77,21; 82,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,8</t>
+          <t>76,1; 80,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,02; 86,47</t>
+          <t>73,32; 86,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,84; 88,88</t>
+          <t>80,22; 88,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,27; 86,85</t>
+          <t>79,08; 87,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,41; 82,27</t>
+          <t>67,84; 82,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,34; 84,53</t>
+          <t>74,14; 84,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,5; 81,78</t>
+          <t>73,38; 81,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,79; 83,02</t>
+          <t>70,02; 83,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,52; 80,91</t>
+          <t>69,01; 80,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,87; 80,64</t>
+          <t>71,38; 80,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,95; 81,02</t>
+          <t>62,24; 79,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,6; 80,4</t>
+          <t>62,67; 80,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,99; 78,5</t>
+          <t>64,82; 77,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,74; 51,22</t>
+          <t>34,94; 51,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,83; 55,93</t>
+          <t>44,03; 56,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,87; 51,93</t>
+          <t>42,12; 51,73</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,73; 85,28</t>
+          <t>73,04; 85,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,33; 87,56</t>
+          <t>76,26; 87,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,43; 85,16</t>
+          <t>76,72; 84,99</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,32; 81,3</t>
+          <t>70,73; 81,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,03; 90,32</t>
+          <t>72,95; 90,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,21; 86,62</t>
+          <t>74,08; 88,12</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,71; 85,4</t>
+          <t>77,51; 85,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,14; 91,68</t>
+          <t>86,66; 91,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,89; 87,57</t>
+          <t>83,11; 87,9</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>73,24; 77,84</t>
+          <t>73,09; 77,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>77,21; 82,87</t>
+          <t>77,26; 83,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>76,1; 80,17</t>
+          <t>75,98; 79,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>82,39%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,32; 86,19</t>
+          <t>69,86; 85,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 88,81</t>
+          <t>79,39; 88,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,08; 87,0</t>
+          <t>76,84; 86,35</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>77,57%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 82,63</t>
+          <t>66,48; 82,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,14; 84,62</t>
+          <t>74,34; 84,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,38; 81,96</t>
+          <t>72,72; 81,84</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>75,98%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,02; 83,14</t>
+          <t>69,46; 82,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,01; 80,92</t>
+          <t>68,84; 80,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,38; 80,8</t>
+          <t>71,03; 80,5</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>66,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>68,74%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,24; 79,21</t>
+          <t>61,79; 79,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,67; 80,49</t>
+          <t>41,93; 79,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,82; 77,94</t>
+          <t>49,25; 76,38</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>46,59%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,94; 51,07</t>
+          <t>34,85; 50,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,03; 56,55</t>
+          <t>43,75; 56,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 51,73</t>
+          <t>41,93; 51,45</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>81,15%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,04; 85,16</t>
+          <t>73,08; 85,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,26; 87,83</t>
+          <t>76,18; 87,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,72; 84,99</t>
+          <t>76,62; 84,93</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>82,12%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,73; 81,2</t>
+          <t>71,22; 81,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,95; 90,51</t>
+          <t>73,08; 94,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,08; 88,12</t>
+          <t>74,49; 92,34</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>85,4%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,51; 85,47</t>
+          <t>77,44; 85,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,98</t>
+          <t>86,47; 91,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,11; 87,9</t>
+          <t>82,9; 87,76</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>77,6%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>73,09; 77,98</t>
+          <t>72,98; 77,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>77,26; 83,1</t>
+          <t>75,31; 84,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,8</t>
+          <t>74,99; 81,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,86; 85,86</t>
+          <t>68,61; 86,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,39; 88,58</t>
+          <t>79,05; 88,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,84; 86,35</t>
+          <t>77,34; 86,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,48; 82,4</t>
+          <t>66,62; 82,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,34; 84,68</t>
+          <t>74,03; 84,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,72; 81,84</t>
+          <t>72,24; 81,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,46; 82,9</t>
+          <t>69,42; 82,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,84; 80,86</t>
+          <t>69,1; 80,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,03; 80,5</t>
+          <t>71,44; 79,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 79,78</t>
+          <t>61,65; 79,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,93; 79,4</t>
+          <t>36,42; 79,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,25; 76,38</t>
+          <t>49,66; 76,3</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,85; 50,97</t>
+          <t>35,15; 52,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,75; 56,01</t>
+          <t>43,64; 56,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,93; 51,45</t>
+          <t>41,86; 51,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,08; 85,25</t>
+          <t>73,34; 85,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 87,82</t>
+          <t>75,56; 87,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,62; 84,93</t>
+          <t>76,4; 85,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,22; 81,83</t>
+          <t>70,44; 81,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,08; 94,01</t>
+          <t>73,2; 94,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,49; 92,34</t>
+          <t>74,47; 91,46</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,44; 85,44</t>
+          <t>77,31; 85,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,47; 91,86</t>
+          <t>86,35; 91,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,9; 87,76</t>
+          <t>82,6; 87,62</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>72,98; 77,99</t>
+          <t>73,01; 77,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>75,31; 84,99</t>
+          <t>75,22; 85,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,99; 81,25</t>
+          <t>75,22; 81,68</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>125527</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>138536</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>264063</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107833; 135414</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>129095; 145234</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>247859; 278644</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>205530</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>187220</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>392750</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>181424; 224405</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>173224; 198516</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>365751; 412377</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>143161</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>136593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>279754</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>129679; 154255</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>125353; 146440</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>263040; 294377</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>123232</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>151967</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>275199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>105535; 136306</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83452; 181145</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>198793; 305468</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>44145</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63659</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>107804</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36127; 53512</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>56134; 72287</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>96871; 120074</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>112848</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>115671</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>228519</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>103560; 121298</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>106068; 122215</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>215141; 239809</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>215544</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>423244</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>638788</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>197826; 227987</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>363863; 471104</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>579283; 711442</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>280082</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>297689</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>577772</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>264953; 292194</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>288288; 306447</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>558876; 592813</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2148</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3492</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1250069</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1514580</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2764650</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1208325; 1287758</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1434953; 1631081</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2679933; 2910240</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>